--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Camp-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Camp-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>Fpr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Camp</t>
-  </si>
-  <si>
-    <t>Fpr2</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07751866666666667</v>
+        <v>0.06462266666666668</v>
       </c>
       <c r="H2">
-        <v>0.232556</v>
+        <v>0.193868</v>
       </c>
       <c r="I2">
-        <v>0.1065023124900106</v>
+        <v>0.07548492174398562</v>
       </c>
       <c r="J2">
-        <v>0.1065023124900106</v>
+        <v>0.07548492174398561</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4496786666666666</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N2">
-        <v>1.349036</v>
+        <v>0.162731</v>
       </c>
       <c r="O2">
-        <v>0.003078235001572996</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P2">
-        <v>0.003078235001572995</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q2">
-        <v>0.03485849066844444</v>
+        <v>0.003505370389777778</v>
       </c>
       <c r="R2">
-        <v>0.3137264160159999</v>
+        <v>0.031548333508</v>
       </c>
       <c r="S2">
-        <v>0.0003278391460552156</v>
+        <v>2.528866198530343E-05</v>
       </c>
       <c r="T2">
-        <v>0.0003278391460552155</v>
+        <v>2.528866198530342E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,46 +602,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07751866666666667</v>
+        <v>0.06462266666666668</v>
       </c>
       <c r="H3">
-        <v>0.232556</v>
+        <v>0.193868</v>
       </c>
       <c r="I3">
-        <v>0.1065023124900106</v>
+        <v>0.07548492174398562</v>
       </c>
       <c r="J3">
-        <v>0.1065023124900106</v>
+        <v>0.07548492174398561</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>8.943258333333334</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N3">
-        <v>26.82977500000001</v>
+        <v>1.349036</v>
       </c>
       <c r="O3">
-        <v>0.0612202732094089</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P3">
-        <v>0.06122027320940888</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q3">
-        <v>0.6932694616555556</v>
+        <v>0.02905943458311111</v>
       </c>
       <c r="R3">
-        <v>6.239425154900001</v>
+        <v>0.261534911248</v>
       </c>
       <c r="S3">
-        <v>0.006520100668072294</v>
+        <v>0.000209642387805678</v>
       </c>
       <c r="T3">
-        <v>0.006520100668072292</v>
+        <v>0.000209642387805678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07751866666666667</v>
+        <v>0.06462266666666668</v>
       </c>
       <c r="H4">
-        <v>0.232556</v>
+        <v>0.193868</v>
       </c>
       <c r="I4">
-        <v>0.1065023124900106</v>
+        <v>0.07548492174398562</v>
       </c>
       <c r="J4">
-        <v>0.1065023124900106</v>
+        <v>0.07548492174398561</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.4484583333333</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N4">
-        <v>394.345375</v>
+        <v>57.364412</v>
       </c>
       <c r="O4">
-        <v>0.8998186379262144</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P4">
-        <v>0.8998186379262143</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q4">
-        <v>10.18970922538889</v>
+        <v>1.235680425068445</v>
       </c>
       <c r="R4">
-        <v>91.70738302849999</v>
+        <v>11.121123825616</v>
       </c>
       <c r="S4">
-        <v>0.09583276576075343</v>
+        <v>0.008914522893939592</v>
       </c>
       <c r="T4">
-        <v>0.09583276576075342</v>
+        <v>0.008914522893939592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.07751866666666667</v>
+        <v>0.06462266666666668</v>
       </c>
       <c r="H5">
-        <v>0.232556</v>
+        <v>0.193868</v>
       </c>
       <c r="I5">
-        <v>0.1065023124900106</v>
+        <v>0.07548492174398562</v>
       </c>
       <c r="J5">
-        <v>0.1065023124900106</v>
+        <v>0.07548492174398561</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,42 +744,42 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.241885</v>
+        <v>138.8619206666667</v>
       </c>
       <c r="N5">
-        <v>15.725655</v>
+        <v>416.585762</v>
       </c>
       <c r="O5">
-        <v>0.03588285386280381</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="P5">
-        <v>0.03588285386280379</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="Q5">
-        <v>0.40634393602</v>
+        <v>8.973627611935113</v>
       </c>
       <c r="R5">
-        <v>3.65709542418</v>
+        <v>80.762648507416</v>
       </c>
       <c r="S5">
-        <v>0.003821606915129717</v>
+        <v>0.06473810474407496</v>
       </c>
       <c r="T5">
-        <v>0.003821606915129715</v>
+        <v>0.06473810474407495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,40 +794,40 @@
         <v>0.193868</v>
       </c>
       <c r="I6">
-        <v>0.08878459518487326</v>
+        <v>0.07548492174398562</v>
       </c>
       <c r="J6">
-        <v>0.08878459518487326</v>
+        <v>0.07548492174398561</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4496786666666666</v>
+        <v>3.426311333333333</v>
       </c>
       <c r="N6">
-        <v>1.349036</v>
+        <v>10.278934</v>
       </c>
       <c r="O6">
-        <v>0.003078235001572996</v>
+        <v>0.02116135274800581</v>
       </c>
       <c r="P6">
-        <v>0.003078235001572995</v>
+        <v>0.02116135274800582</v>
       </c>
       <c r="Q6">
-        <v>0.02905943458311111</v>
+        <v>0.2214173751902222</v>
       </c>
       <c r="R6">
-        <v>0.261534911248</v>
+        <v>1.992756376712</v>
       </c>
       <c r="S6">
-        <v>0.0002732998484985661</v>
+        <v>0.001597363056180094</v>
       </c>
       <c r="T6">
-        <v>0.0002732998484985661</v>
+        <v>0.001597363056180094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6572943333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.971883</v>
+      </c>
+      <c r="I7">
+        <v>0.7677772192589576</v>
+      </c>
+      <c r="J7">
+        <v>0.7677772192589575</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.06462266666666668</v>
-      </c>
-      <c r="H7">
-        <v>0.193868</v>
-      </c>
-      <c r="I7">
-        <v>0.08878459518487326</v>
-      </c>
-      <c r="J7">
-        <v>0.08878459518487326</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>8.943258333333334</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N7">
-        <v>26.82977500000001</v>
+        <v>0.162731</v>
       </c>
       <c r="O7">
-        <v>0.0612202732094089</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P7">
-        <v>0.06122027320940888</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q7">
-        <v>0.577937202188889</v>
+        <v>0.03565405471922222</v>
       </c>
       <c r="R7">
-        <v>5.201434819700001</v>
+        <v>0.320886492473</v>
       </c>
       <c r="S7">
-        <v>0.005435417174004711</v>
+        <v>0.0002572177082425469</v>
       </c>
       <c r="T7">
-        <v>0.00543541717400471</v>
+        <v>0.0002572177082425468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06462266666666668</v>
+        <v>0.6572943333333333</v>
       </c>
       <c r="H8">
-        <v>0.193868</v>
+        <v>1.971883</v>
       </c>
       <c r="I8">
-        <v>0.08878459518487326</v>
+        <v>0.7677772192589576</v>
       </c>
       <c r="J8">
-        <v>0.08878459518487326</v>
+        <v>0.7677772192589575</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>131.4484583333333</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N8">
-        <v>394.345375</v>
+        <v>1.349036</v>
       </c>
       <c r="O8">
-        <v>0.8998186379262144</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P8">
-        <v>0.8998186379262143</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q8">
-        <v>8.494549906722222</v>
+        <v>0.2955712394208889</v>
       </c>
       <c r="R8">
-        <v>76.4509491605</v>
+        <v>2.660141154788</v>
       </c>
       <c r="S8">
-        <v>0.07989003350808299</v>
+        <v>0.002132328494611921</v>
       </c>
       <c r="T8">
-        <v>0.07989003350808299</v>
+        <v>0.00213232849461192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06462266666666668</v>
+        <v>0.6572943333333333</v>
       </c>
       <c r="H9">
-        <v>0.193868</v>
+        <v>1.971883</v>
       </c>
       <c r="I9">
-        <v>0.08878459518487326</v>
+        <v>0.7677772192589576</v>
       </c>
       <c r="J9">
-        <v>0.08878459518487326</v>
+        <v>0.7677772192589575</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,122 +992,122 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.241885</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N9">
-        <v>15.725655</v>
+        <v>57.364412</v>
       </c>
       <c r="O9">
-        <v>0.03588285386280381</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P9">
-        <v>0.03588285386280379</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q9">
-        <v>0.33874458706</v>
+        <v>12.56843431419956</v>
       </c>
       <c r="R9">
-        <v>3.04870128354</v>
+        <v>113.115908827796</v>
       </c>
       <c r="S9">
-        <v>0.003185844654287002</v>
+        <v>0.09067198376044672</v>
       </c>
       <c r="T9">
-        <v>0.003185844654287001</v>
+        <v>0.09067198376044672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4859196666666667</v>
+        <v>0.6572943333333333</v>
       </c>
       <c r="H10">
-        <v>1.457759</v>
+        <v>1.971883</v>
       </c>
       <c r="I10">
-        <v>0.6676013715110574</v>
+        <v>0.7677772192589576</v>
       </c>
       <c r="J10">
-        <v>0.6676013715110573</v>
+        <v>0.7677772192589575</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4496786666666666</v>
+        <v>138.8619206666667</v>
       </c>
       <c r="N10">
-        <v>1.349036</v>
+        <v>416.585762</v>
       </c>
       <c r="O10">
-        <v>0.003078235001572996</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="P10">
-        <v>0.003078235001572995</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="Q10">
-        <v>0.2185077078137778</v>
+        <v>91.27315356998288</v>
       </c>
       <c r="R10">
-        <v>1.966569370324</v>
+        <v>821.458382129846</v>
       </c>
       <c r="S10">
-        <v>0.002055033908883474</v>
+        <v>0.6584684847270346</v>
       </c>
       <c r="T10">
-        <v>0.002055033908883473</v>
+        <v>0.6584684847270346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4859196666666667</v>
+        <v>0.6572943333333333</v>
       </c>
       <c r="H11">
-        <v>1.457759</v>
+        <v>1.971883</v>
       </c>
       <c r="I11">
-        <v>0.6676013715110574</v>
+        <v>0.7677772192589576</v>
       </c>
       <c r="J11">
-        <v>0.6676013715110573</v>
+        <v>0.7677772192589575</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.943258333333334</v>
+        <v>3.426311333333333</v>
       </c>
       <c r="N11">
-        <v>26.82977500000001</v>
+        <v>10.278934</v>
       </c>
       <c r="O11">
-        <v>0.0612202732094089</v>
+        <v>0.02116135274800581</v>
       </c>
       <c r="P11">
-        <v>0.06122027320940888</v>
+        <v>0.02116135274800582</v>
       </c>
       <c r="Q11">
-        <v>4.345705108247223</v>
+        <v>2.252095023635778</v>
       </c>
       <c r="R11">
-        <v>39.11134597422501</v>
+        <v>20.268855212722</v>
       </c>
       <c r="S11">
-        <v>0.04087073835888302</v>
+        <v>0.0162472045686218</v>
       </c>
       <c r="T11">
-        <v>0.040870738358883</v>
+        <v>0.01624720456862181</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.4859196666666667</v>
+        <v>0.1341833333333333</v>
       </c>
       <c r="H12">
-        <v>1.457759</v>
+        <v>0.40255</v>
       </c>
       <c r="I12">
-        <v>0.6676013715110574</v>
+        <v>0.1567378589970568</v>
       </c>
       <c r="J12">
-        <v>0.6676013715110573</v>
+        <v>0.1567378589970568</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>131.4484583333333</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N12">
-        <v>394.345375</v>
+        <v>0.162731</v>
       </c>
       <c r="O12">
-        <v>0.8998186379262144</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P12">
-        <v>0.8998186379262143</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q12">
-        <v>63.87339105718056</v>
+        <v>0.007278596005555556</v>
       </c>
       <c r="R12">
-        <v>574.860519514625</v>
+        <v>0.06550736405</v>
       </c>
       <c r="S12">
-        <v>0.6007201567907523</v>
+        <v>5.25097018702617E-05</v>
       </c>
       <c r="T12">
-        <v>0.6007201567907521</v>
+        <v>5.250970187026169E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,75 +1207,75 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1341833333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.40255</v>
+      </c>
+      <c r="I13">
+        <v>0.1567378589970568</v>
+      </c>
+      <c r="J13">
+        <v>0.1567378589970568</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.4859196666666667</v>
-      </c>
-      <c r="H13">
-        <v>1.457759</v>
-      </c>
-      <c r="I13">
-        <v>0.6676013715110574</v>
-      </c>
-      <c r="J13">
-        <v>0.6676013715110573</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>5.241885</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N13">
-        <v>15.725655</v>
+        <v>1.349036</v>
       </c>
       <c r="O13">
-        <v>0.03588285386280381</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P13">
-        <v>0.03588285386280379</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q13">
-        <v>2.547135011905</v>
+        <v>0.06033938242222222</v>
       </c>
       <c r="R13">
-        <v>22.924215107145</v>
+        <v>0.5430544418</v>
       </c>
       <c r="S13">
-        <v>0.02395544245253866</v>
+        <v>0.0004353041410195375</v>
       </c>
       <c r="T13">
-        <v>0.02395544245253865</v>
+        <v>0.0004353041410195374</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,60 +1284,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.099798</v>
+        <v>0.1341833333333333</v>
       </c>
       <c r="H14">
-        <v>0.299394</v>
+        <v>0.40255</v>
       </c>
       <c r="I14">
-        <v>0.1371117208140588</v>
+        <v>0.1567378589970568</v>
       </c>
       <c r="J14">
-        <v>0.1371117208140588</v>
+        <v>0.1567378589970568</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4496786666666666</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N14">
-        <v>1.349036</v>
+        <v>57.364412</v>
       </c>
       <c r="O14">
-        <v>0.003078235001572996</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P14">
-        <v>0.003078235001572995</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q14">
-        <v>0.044877031576</v>
+        <v>2.565782672288889</v>
       </c>
       <c r="R14">
-        <v>0.4038932841839999</v>
+        <v>23.0920440506</v>
       </c>
       <c r="S14">
-        <v>0.0004220620981357403</v>
+        <v>0.01851022959413303</v>
       </c>
       <c r="T14">
-        <v>0.0004220620981357402</v>
+        <v>0.01851022959413303</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.099798</v>
+        <v>0.1341833333333333</v>
       </c>
       <c r="H15">
-        <v>0.299394</v>
+        <v>0.40255</v>
       </c>
       <c r="I15">
-        <v>0.1371117208140588</v>
+        <v>0.1567378589970568</v>
       </c>
       <c r="J15">
-        <v>0.1371117208140588</v>
+        <v>0.1567378589970568</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,39 +1364,39 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.943258333333334</v>
+        <v>138.8619206666667</v>
       </c>
       <c r="N15">
-        <v>26.82977500000001</v>
+        <v>416.585762</v>
       </c>
       <c r="O15">
-        <v>0.0612202732094089</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="P15">
-        <v>0.06122027320940888</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="Q15">
-        <v>0.8925192951500001</v>
+        <v>18.63295538812222</v>
       </c>
       <c r="R15">
-        <v>8.032673656350001</v>
+        <v>167.6965984931</v>
       </c>
       <c r="S15">
-        <v>0.008394017008448874</v>
+        <v>0.1344230304368301</v>
       </c>
       <c r="T15">
-        <v>0.008394017008448872</v>
+        <v>0.1344230304368301</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.099798</v>
+        <v>0.1341833333333333</v>
       </c>
       <c r="H16">
-        <v>0.299394</v>
+        <v>0.40255</v>
       </c>
       <c r="I16">
-        <v>0.1371117208140588</v>
+        <v>0.1567378589970568</v>
       </c>
       <c r="J16">
-        <v>0.1371117208140588</v>
+        <v>0.1567378589970568</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,90 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>131.4484583333333</v>
+        <v>3.426311333333333</v>
       </c>
       <c r="N16">
-        <v>394.345375</v>
+        <v>10.278934</v>
       </c>
       <c r="O16">
-        <v>0.8998186379262144</v>
+        <v>0.02116135274800581</v>
       </c>
       <c r="P16">
-        <v>0.8998186379262143</v>
+        <v>0.02116135274800582</v>
       </c>
       <c r="Q16">
-        <v>13.11829324475</v>
+        <v>0.4597538757444445</v>
       </c>
       <c r="R16">
-        <v>118.06463920275</v>
+        <v>4.1377848817</v>
       </c>
       <c r="S16">
-        <v>0.1233756818666257</v>
+        <v>0.003316785123203917</v>
       </c>
       <c r="T16">
-        <v>0.1233756818666257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.099798</v>
-      </c>
-      <c r="H17">
-        <v>0.299394</v>
-      </c>
-      <c r="I17">
-        <v>0.1371117208140588</v>
-      </c>
-      <c r="J17">
-        <v>0.1371117208140588</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>5.241885</v>
-      </c>
-      <c r="N17">
-        <v>15.725655</v>
-      </c>
-      <c r="O17">
-        <v>0.03588285386280381</v>
-      </c>
-      <c r="P17">
-        <v>0.03588285386280379</v>
-      </c>
-      <c r="Q17">
-        <v>0.52312963923</v>
-      </c>
-      <c r="R17">
-        <v>4.70816675307</v>
-      </c>
-      <c r="S17">
-        <v>0.004919959840848425</v>
-      </c>
-      <c r="T17">
-        <v>0.004919959840848424</v>
+        <v>0.003316785123203917</v>
       </c>
     </row>
   </sheetData>
